--- a/Sudoku.xlsx
+++ b/Sudoku.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\Bonfire\Homework\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71BAE690-5520-4D35-9C8C-74F6B796DDE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B388C845-8093-4B85-8E4A-C84BF1C76270}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{01E73486-3A6F-4417-8BB1-DCA9874F2FAB}"/>
   </bookViews>
@@ -1650,7 +1650,7 @@
   <dimension ref="B1:L10"/>
   <sheetViews>
     <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="K19" sqref="K19"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1695,7 +1695,9 @@
       <c r="E3" s="10">
         <v>5</v>
       </c>
-      <c r="F3" s="11"/>
+      <c r="F3" s="11">
+        <v>7</v>
+      </c>
       <c r="G3" s="12"/>
       <c r="H3" s="7"/>
       <c r="I3" s="8">
@@ -1710,14 +1712,14 @@
       <c r="B4" s="13"/>
       <c r="C4" s="14"/>
       <c r="D4" s="15"/>
-      <c r="E4" s="16"/>
+      <c r="E4" s="16">
+        <v>1</v>
+      </c>
       <c r="F4" s="17"/>
       <c r="G4" s="18"/>
       <c r="H4" s="7"/>
       <c r="I4" s="8"/>
-      <c r="J4" s="9">
-        <v>7</v>
-      </c>
+      <c r="J4" s="9"/>
       <c r="L4" t="s">
         <v>3</v>
       </c>
@@ -1781,7 +1783,9 @@
       <c r="B8" s="1">
         <v>8</v>
       </c>
-      <c r="C8" s="2"/>
+      <c r="C8" s="2">
+        <v>7</v>
+      </c>
       <c r="D8" s="3"/>
       <c r="E8" s="4"/>
       <c r="F8" s="5"/>
@@ -1908,8 +1912,12 @@
   <conditionalFormatting sqref="H8:J10">
     <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
-  <dataValidations count="1">
-    <dataValidation type="whole" allowBlank="1" showErrorMessage="1" errorTitle="Error" error="Must enter a number between 1-9" promptTitle="Error" prompt="Must enter a value between " sqref="G6:G8 F7:F10 C10 E8:E9 D8:D10 B9:B10 J5:J10 I7:I8 I2 J2:J3 H2:H4 I4 G3:G4 F2:F5 E4:E6 C4:C5 D2:D6 B2:B7 C8 H7:H9" xr:uid="{A54E0D6F-2022-44EF-8913-491503F3121A}">
+  <dataValidations count="2">
+    <dataValidation type="whole" allowBlank="1" showErrorMessage="1" errorTitle="Error" error="Must enter a number between 1-9" promptTitle="Error" prompt="Must enter a value between " sqref="G6:G8 F7:F10 C10 E8:E9 D8:D10 B9:B10 J5:J10 I7:I8 I2 J2:J3 H2:H4 I4 G3:G4 F2:F5 E4:E6 C4:C5 H7:H9 B2:B7 D3:D5 C8" xr:uid="{A54E0D6F-2022-44EF-8913-491503F3121A}">
+      <formula1>1</formula1>
+      <formula2>9</formula2>
+    </dataValidation>
+    <dataValidation type="whole" showErrorMessage="1" errorTitle="Error" error="Must enter a number between 1-9" promptTitle="Error" prompt="Must enter a value between " sqref="D6 D2" xr:uid="{FD7FC936-DC9A-443D-83EC-DBB382989365}">
       <formula1>1</formula1>
       <formula2>9</formula2>
     </dataValidation>
@@ -1918,12 +1926,12 @@
   <pageSetup orientation="portrait" r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="8">
-        <x14:dataValidation type="whole" operator="equal" allowBlank="1" showErrorMessage="1" errorTitle="Error" error="Cannot change this value" promptTitle="Error" prompt="Must enter a value between " xr:uid="{8F89547B-7162-4396-BE21-A35BFF7C7344}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="12">
+        <x14:dataValidation type="whole" operator="equal" showErrorMessage="1" errorTitle="Error" error="Cannot change this value" promptTitle="Error" prompt="Must enter a value between " xr:uid="{8F89547B-7162-4396-BE21-A35BFF7C7344}">
           <x14:formula1>
-            <xm:f>Solution!C2</xm:f>
+            <xm:f>Solution!I3</xm:f>
           </x14:formula1>
-          <xm:sqref>G2 I3 E2:E3 C2</xm:sqref>
+          <xm:sqref>I3</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="whole" operator="equal" allowBlank="1" showErrorMessage="1" errorTitle="Error" error="Cannot change this value_x000a_" promptTitle="Error" prompt="Must enter a value between " xr:uid="{B95A01D7-BF77-45F7-A750-A591193CDBF6}">
           <x14:formula1>
@@ -1933,11 +1941,11 @@
         </x14:dataValidation>
         <x14:dataValidation type="whole" operator="equal" allowBlank="1" showErrorMessage="1" errorTitle="Error" error="Must enter a number between 1-9" promptTitle="Error" prompt="Must enter a value between " xr:uid="{B03495E5-3BC4-4C22-95CF-5A52365D7266}">
           <x14:formula1>
-            <xm:f>Solution!H4</xm:f>
+            <xm:f>Solution!J4</xm:f>
           </x14:formula1>
-          <xm:sqref>J4 H10</xm:sqref>
+          <xm:sqref>J4</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="whole" operator="equal" allowBlank="1" showErrorMessage="1" errorTitle="Error" error="Cannot Change This Value" promptTitle="Error" prompt="Must enter a value between " xr:uid="{D0B4D1D4-EA30-42EF-818B-AC4E7E3BB6D5}">
+        <x14:dataValidation type="whole" operator="equal" showErrorMessage="1" errorTitle="Error" error="Cannot Change This Value" promptTitle="Error" prompt="Must enter a value between " xr:uid="{D0B4D1D4-EA30-42EF-818B-AC4E7E3BB6D5}">
           <x14:formula1>
             <xm:f>Solution!H5</xm:f>
           </x14:formula1>
@@ -1945,11 +1953,11 @@
         </x14:dataValidation>
         <x14:dataValidation type="whole" operator="equal" allowBlank="1" showErrorMessage="1" errorTitle="Error" error="Cannot Change This Number" promptTitle="Error" prompt="Must enter a value between " xr:uid="{B3D94EE2-1787-473F-8A0A-6FEA1062EC18}">
           <x14:formula1>
-            <xm:f>Solution!C5</xm:f>
+            <xm:f>Solution!I5</xm:f>
           </x14:formula1>
-          <xm:sqref>I5 H6 G5 F6 E7 C6 C7 D7 E10 G10 G9 I10 I9</xm:sqref>
+          <xm:sqref>I5</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="whole" operator="equal" allowBlank="1" showErrorMessage="1" errorTitle="Error" error="Cannot Change This Number" promptTitle="Error" prompt="Must enter a value between " xr:uid="{FD779338-4ABA-4C56-86B5-CADC83493885}">
+        <x14:dataValidation type="whole" operator="equal" showErrorMessage="1" errorTitle="Error" error="Cannot Change This Number" promptTitle="Error" prompt="Must enter a value between " xr:uid="{FD779338-4ABA-4C56-86B5-CADC83493885}">
           <x14:formula1>
             <xm:f>Solution!I3</xm:f>
           </x14:formula1>
@@ -1957,15 +1965,39 @@
         </x14:dataValidation>
         <x14:dataValidation type="whole" operator="equal" allowBlank="1" showErrorMessage="1" errorTitle="Error" error="Cannot Change This Number_x000a_" promptTitle="Error" prompt="Must enter a value between " xr:uid="{A6A3E0C8-79D0-4B53-A4D2-C3A52F92D381}">
           <x14:formula1>
+            <xm:f>Solution!H10</xm:f>
+          </x14:formula1>
+          <xm:sqref>H10</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="whole" operator="equal" showErrorMessage="1" errorTitle="Error" error="Cannot Change This Number" promptTitle="Error" prompt="Must enter a value between " xr:uid="{39E39F03-CE4E-40A3-BACF-E0675BB6331C}">
+          <x14:formula1>
+            <xm:f>Solution!C5</xm:f>
+          </x14:formula1>
+          <xm:sqref>C9 E10 G10 G9 I10 I9 H6 G5 F6 E7</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="whole" operator="equal" showErrorMessage="1" errorTitle="Error" error="Cannot Change This Number" promptTitle="Error" prompt="Must enter a value between " xr:uid="{1D7E1D6F-C872-40AA-8E5E-546C465AB894}">
+          <x14:formula1>
+            <xm:f>Solution!C6</xm:f>
+          </x14:formula1>
+          <xm:sqref>C6 C7 D7</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="whole" operator="equal" showErrorMessage="1" errorTitle="Error" error="Cannot change this value" promptTitle="Error" prompt="Must enter a value between " xr:uid="{8D55E824-0726-4EA3-B5FC-8CC10FB394A6}">
+          <x14:formula1>
+            <xm:f>Solution!C2</xm:f>
+          </x14:formula1>
+          <xm:sqref>C2 E2 G2 E3</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="whole" operator="equal" showErrorMessage="1" errorTitle="Error" error="Cannot Change This Number_x000a_" promptTitle="Error" prompt="Must enter a value between " xr:uid="{48771F2F-6A75-425C-98C2-843D58453C4A}">
+          <x14:formula1>
             <xm:f>Solution!B8</xm:f>
           </x14:formula1>
-          <xm:sqref>B8 H10</xm:sqref>
+          <xm:sqref>B8</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="whole" operator="equal" allowBlank="1" showErrorMessage="1" errorTitle="Error" error="Cannot Change This Number" promptTitle="Error" prompt="Must enter a value between " xr:uid="{39E39F03-CE4E-40A3-BACF-E0675BB6331C}">
+        <x14:dataValidation type="whole" operator="equal" showErrorMessage="1" errorTitle="Error" error="Must enter a number between 1-9" promptTitle="Error" prompt="Must enter a value between " xr:uid="{D4E47DDC-0E67-4417-9E83-77FBA1B616F3}">
           <x14:formula1>
-            <xm:f>Solution!C9</xm:f>
+            <xm:f>Solution!H10</xm:f>
           </x14:formula1>
-          <xm:sqref>C9</xm:sqref>
+          <xm:sqref>H10</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>

--- a/Sudoku.xlsx
+++ b/Sudoku.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\Bonfire\Homework\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B388C845-8093-4B85-8E4A-C84BF1C76270}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDA9137F-F5B0-44E0-ABEB-91F3D5988662}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{01E73486-3A6F-4417-8BB1-DCA9874F2FAB}"/>
   </bookViews>
@@ -1650,7 +1650,7 @@
   <dimension ref="B1:L10"/>
   <sheetViews>
     <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1695,9 +1695,7 @@
       <c r="E3" s="10">
         <v>5</v>
       </c>
-      <c r="F3" s="11">
-        <v>7</v>
-      </c>
+      <c r="F3" s="11"/>
       <c r="G3" s="12"/>
       <c r="H3" s="7"/>
       <c r="I3" s="8">
@@ -1712,14 +1710,14 @@
       <c r="B4" s="13"/>
       <c r="C4" s="14"/>
       <c r="D4" s="15"/>
-      <c r="E4" s="16">
-        <v>1</v>
-      </c>
+      <c r="E4" s="16"/>
       <c r="F4" s="17"/>
       <c r="G4" s="18"/>
       <c r="H4" s="7"/>
       <c r="I4" s="8"/>
-      <c r="J4" s="9"/>
+      <c r="J4" s="9">
+        <v>7</v>
+      </c>
       <c r="L4" t="s">
         <v>3</v>
       </c>
@@ -1783,9 +1781,7 @@
       <c r="B8" s="1">
         <v>8</v>
       </c>
-      <c r="C8" s="2">
-        <v>7</v>
-      </c>
+      <c r="C8" s="2"/>
       <c r="D8" s="3"/>
       <c r="E8" s="4"/>
       <c r="F8" s="5"/>
@@ -1939,7 +1935,7 @@
           </x14:formula1>
           <xm:sqref>C3</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="whole" operator="equal" allowBlank="1" showErrorMessage="1" errorTitle="Error" error="Must enter a number between 1-9" promptTitle="Error" prompt="Must enter a value between " xr:uid="{B03495E5-3BC4-4C22-95CF-5A52365D7266}">
+        <x14:dataValidation type="whole" operator="equal" showErrorMessage="1" errorTitle="Error" error="Must enter a number between 1-9" promptTitle="Error" prompt="Must enter a value between " xr:uid="{B03495E5-3BC4-4C22-95CF-5A52365D7266}">
           <x14:formula1>
             <xm:f>Solution!J4</xm:f>
           </x14:formula1>
